--- a/data/국가 정보.xlsx
+++ b/data/국가 정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umul\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umul\Desktop\K-Beauty Direct\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AEB1E-DE30-486E-BFA8-2A45FD0256CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D94B2-AFDD-4925-AA2F-C31523C79805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="6255" windowWidth="17295" windowHeight="9060" activeTab="1" xr2:uid="{BA6EC643-C1D4-4682-90EC-6A10ABE48959}"/>
+    <workbookView xWindow="1755" yWindow="2880" windowWidth="21405" windowHeight="12825" activeTab="1" xr2:uid="{BA6EC643-C1D4-4682-90EC-6A10ABE48959}"/>
   </bookViews>
   <sheets>
     <sheet name="Trade Indicator" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>국가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>1인당 GDP(PPP) </t>
+  </si>
+  <si>
+    <t>인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -200,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +218,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2161,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD4B4-91CA-4C41-ADF4-8C347313FC8B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2172,11 +2179,12 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2190,13 +2198,16 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2209,14 +2220,17 @@
       <c r="D2">
         <v>3331</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
+        <v>337411253</v>
+      </c>
+      <c r="F2">
         <v>6118</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>72578</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2229,14 +2243,17 @@
       <c r="D3">
         <v>1693</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
+        <v>101309200</v>
+      </c>
+      <c r="F3">
         <v>1515</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>34656</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2249,14 +2266,17 @@
       <c r="D4">
         <v>194</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
+        <v>212583750</v>
+      </c>
+      <c r="F4">
         <v>190</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2269,14 +2289,17 @@
       <c r="D5">
         <v>582</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
+        <v>68350000</v>
+      </c>
+      <c r="F5">
         <v>191</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4067</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2289,14 +2312,17 @@
       <c r="D6">
         <v>2249</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
+        <v>1441720000</v>
+      </c>
+      <c r="F6">
         <v>938</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11270</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2309,14 +2335,17 @@
       <c r="D7">
         <v>662</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
+        <v>278696200</v>
+      </c>
+      <c r="F7">
         <v>715</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2329,14 +2358,17 @@
       <c r="D8">
         <v>2336</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
+        <v>123941000</v>
+      </c>
+      <c r="F8">
         <v>1379</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16382</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2349,14 +2381,17 @@
       <c r="D9">
         <v>4756</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
+        <v>1409670000</v>
+      </c>
+      <c r="F9">
         <v>1765</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>71557</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2369,14 +2404,17 @@
       <c r="D10">
         <v>537</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
+        <v>70266000</v>
+      </c>
+      <c r="F10">
         <v>647</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4628</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2389,14 +2427,17 @@
       <c r="D11">
         <v>630</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
+        <v>85372377</v>
+      </c>
+      <c r="F11">
         <v>230</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5460</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2409,14 +2450,17 @@
       <c r="D12">
         <v>405</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
+        <v>68373433</v>
+      </c>
+      <c r="F12">
         <v>161</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3347</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2429,12 +2473,18 @@
       <c r="D13">
         <v>1094</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
+        <v>11027129</v>
+      </c>
+      <c r="F13">
         <v>500</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3055</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
